--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>

--- a/Excel/Hackathondata.xlsx
+++ b/Excel/Hackathondata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>
